--- a/db_rowdy.xlsx
+++ b/db_rowdy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crull\Desktop\Rowdy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crull\Desktop\Rowdy\Nueva carpeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34EDEDEB-52E9-40F0-BDBB-292172DDB783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A2EBC6-04B7-480A-8F04-938467C2F0D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9090" windowWidth="29040" windowHeight="15840" xr2:uid="{ECBFAEF3-D2CA-475B-AD7A-3CDC95E2CD8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ECBFAEF3-D2CA-475B-AD7A-3CDC95E2CD8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>A1.1</t>
-  </si>
-  <si>
-    <t>Hèlix</t>
   </si>
   <si>
     <t>A1.2</t>
@@ -106,13 +103,16 @@
   <si>
     <t>B1.2</t>
   </si>
+  <si>
+    <t>Helix</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -170,15 +170,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB398F36-7613-42EA-B787-8D8D33D88E99}">
-  <dimension ref="A1:F323"/>
+  <dimension ref="A1:G323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -529,7 +530,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>0.06</v>
@@ -549,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3">
         <v>0.06</v>
@@ -569,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
         <v>0.06</v>
@@ -589,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>0.06</v>
@@ -609,7 +610,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3">
         <v>0.06</v>
@@ -629,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3">
         <v>0.06</v>
@@ -646,10 +647,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3">
         <v>0.06</v>
@@ -666,10 +667,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3">
         <v>0.06</v>
@@ -686,10 +687,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3">
         <v>0.06</v>
@@ -706,10 +707,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3">
         <v>0.06</v>
@@ -726,10 +727,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3">
         <v>0.06</v>
@@ -746,10 +747,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3">
         <v>0.06</v>
@@ -766,10 +767,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3">
         <v>0.06</v>
@@ -786,10 +787,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3">
         <v>0.06</v>
@@ -806,10 +807,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3">
         <v>0.06</v>
@@ -826,10 +827,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3">
         <v>0.06</v>
@@ -846,10 +847,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3">
         <v>0.06</v>
@@ -866,10 +867,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3">
         <v>0.06</v>
@@ -886,10 +887,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3">
         <v>0.06</v>
@@ -906,10 +907,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3">
         <v>0.06</v>
@@ -926,10 +927,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C22" s="3">
         <v>0.06</v>
@@ -946,10 +947,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C23" s="3">
         <v>0.06</v>
@@ -966,10 +967,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3">
         <v>0.06</v>
@@ -986,10 +987,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3">
         <v>0.06</v>
@@ -1006,10 +1007,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3">
         <v>0.06</v>
@@ -1026,10 +1027,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4">
         <v>0.06</v>
@@ -1046,10 +1047,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C28" s="4">
         <v>0.06</v>
@@ -1066,10 +1067,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C29" s="7">
         <v>0.06</v>
@@ -1086,10 +1087,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
         <v>0.06</v>
@@ -1106,10 +1107,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C31" s="7">
         <v>0.06</v>
@@ -1126,10 +1127,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C32" s="7">
         <v>0.06</v>
@@ -1146,10 +1147,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C33" s="7">
         <v>0.06</v>
@@ -1166,10 +1167,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C34" s="7">
         <v>0.06</v>
@@ -1186,10 +1187,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C35" s="7">
         <v>0.06</v>
@@ -1206,10 +1207,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C36" s="7">
         <v>0.06</v>
@@ -1226,10 +1227,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C37" s="7">
         <v>0.06</v>
@@ -1246,10 +1247,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C38" s="7">
         <v>0.06</v>
@@ -1266,10 +1267,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C39" s="7">
         <v>0.06</v>
@@ -1286,10 +1287,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C40" s="7">
         <v>0.06</v>
@@ -1306,10 +1307,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C41" s="7">
         <v>0.06</v>
@@ -1326,10 +1327,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C42" s="7">
         <v>0.06</v>
@@ -1346,10 +1347,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C43" s="7">
         <v>0.06</v>
@@ -1366,10 +1367,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C44" s="7">
         <v>0.06</v>
@@ -1386,10 +1387,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C45" s="7">
         <v>0.06</v>
@@ -1406,10 +1407,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>4.4999999999999998E-2</v>
@@ -1426,10 +1427,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1446,10 +1447,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1466,10 +1467,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1486,10 +1487,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1506,10 +1507,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1526,10 +1527,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1546,10 +1547,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1566,10 +1567,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1586,10 +1587,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1606,10 +1607,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1626,10 +1627,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1646,10 +1647,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1666,10 +1667,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1686,10 +1687,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1706,10 +1707,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1726,10 +1727,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1746,10 +1747,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1766,10 +1767,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" s="5">
         <v>4.4999999999999998E-2</v>
@@ -1786,10 +1787,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" s="7">
         <v>4.4999999999999998E-2</v>
@@ -1806,10 +1807,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" s="7">
         <v>4.4999999999999998E-2</v>
@@ -1826,10 +1827,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" s="7">
         <v>4.4999999999999998E-2</v>
@@ -1846,10 +1847,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" s="7">
         <v>4.4999999999999998E-2</v>
@@ -1866,10 +1867,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" s="7">
         <v>4.4999999999999998E-2</v>
@@ -1886,10 +1887,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" s="7">
         <v>4.4999999999999998E-2</v>
@@ -1906,10 +1907,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" s="7">
         <v>4.4999999999999998E-2</v>
@@ -1926,10 +1927,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" s="7">
         <v>4.4999999999999998E-2</v>
@@ -1946,10 +1947,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" s="7">
         <v>4.4999999999999998E-2</v>
@@ -1966,10 +1967,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" s="7">
         <v>4.4999999999999998E-2</v>
@@ -1986,10 +1987,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" s="7">
         <v>4.4999999999999998E-2</v>
@@ -2006,10 +2007,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" s="7">
         <v>4.4999999999999998E-2</v>
@@ -2026,10 +2027,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" s="7">
         <v>4.4999999999999998E-2</v>
@@ -2046,10 +2047,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" s="7">
         <v>4.4999999999999998E-2</v>
@@ -2066,10 +2067,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" s="7">
         <v>4.4999999999999998E-2</v>
@@ -2086,10 +2087,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" s="7">
         <v>4.4999999999999998E-2</v>
@@ -2106,10 +2107,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" s="7">
         <v>4.4999999999999998E-2</v>
@@ -2126,10 +2127,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82">
         <v>7.8E-2</v>
@@ -2146,10 +2147,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C83" s="7">
         <v>7.8E-2</v>
@@ -2166,10 +2167,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C84" s="7">
         <v>7.8E-2</v>
@@ -2186,10 +2187,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C85" s="7">
         <v>7.8E-2</v>
@@ -2206,10 +2207,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C86" s="7">
         <v>7.8E-2</v>
@@ -2226,10 +2227,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C87" s="7">
         <v>7.8E-2</v>
@@ -2246,10 +2247,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C88" s="7">
         <v>7.8E-2</v>
@@ -2266,10 +2267,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C89" s="7">
         <v>7.8E-2</v>
@@ -2286,10 +2287,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="7">
         <v>7.8E-2</v>
@@ -2306,10 +2307,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C91" s="7">
         <v>7.8E-2</v>
@@ -2326,10 +2327,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C92" s="7">
         <v>7.8E-2</v>
@@ -2346,10 +2347,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C93" s="7">
         <v>7.8E-2</v>
@@ -2366,10 +2367,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C94" s="7">
         <v>7.8E-2</v>
@@ -2386,10 +2387,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C95" s="7">
         <v>7.8E-2</v>
@@ -2406,10 +2407,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C96" s="7">
         <v>7.8E-2</v>
@@ -2426,10 +2427,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C97" s="7">
         <v>7.8E-2</v>
@@ -2446,10 +2447,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C98" s="7">
         <v>7.8E-2</v>
@@ -2466,10 +2467,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C99" s="7">
         <v>7.8E-2</v>
@@ -2486,10 +2487,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C100">
         <v>7.8E-2</v>
@@ -2506,10 +2507,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C101" s="7">
         <v>7.8E-2</v>
@@ -2526,10 +2527,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" s="7">
         <v>7.8E-2</v>
@@ -2546,10 +2547,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C103" s="7">
         <v>7.8E-2</v>
@@ -2566,10 +2567,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C104" s="7">
         <v>7.8E-2</v>
@@ -2586,10 +2587,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C105" s="7">
         <v>7.8E-2</v>
@@ -2606,10 +2607,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" s="7">
         <v>7.8E-2</v>
@@ -2626,10 +2627,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" s="7">
         <v>7.8E-2</v>
@@ -2646,10 +2647,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C108" s="7">
         <v>7.8E-2</v>
@@ -2666,10 +2667,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C109" s="7">
         <v>7.8E-2</v>
@@ -2686,10 +2687,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C110" s="7">
         <v>7.8E-2</v>
@@ -2706,10 +2707,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C111" s="7">
         <v>7.8E-2</v>
@@ -2726,10 +2727,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C112" s="7">
         <v>7.8E-2</v>
@@ -2744,12 +2745,12 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" s="7">
         <v>7.8E-2</v>
@@ -2764,12 +2765,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C114" s="7">
         <v>7.8E-2</v>
@@ -2784,12 +2785,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C115" s="7">
         <v>7.8E-2</v>
@@ -2804,12 +2805,12 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C116" s="7">
         <v>7.8E-2</v>
@@ -2824,12 +2825,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C117" s="7">
         <v>7.8E-2</v>
@@ -2844,1472 +2845,1544 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D118" s="2">
+        <v>4</v>
+      </c>
+      <c r="E118" s="8">
+        <v>100</v>
+      </c>
+      <c r="F118" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D119" s="7">
+        <v>4</v>
+      </c>
+      <c r="E119" s="8">
+        <v>200</v>
+      </c>
+      <c r="F119" s="1">
+        <v>9</v>
+      </c>
+      <c r="G119" s="7"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D120" s="7">
+        <v>4</v>
+      </c>
+      <c r="E120" s="8">
+        <v>300</v>
+      </c>
+      <c r="F120" s="1">
+        <v>11</v>
+      </c>
+      <c r="G120" s="7"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D121" s="7">
+        <v>4</v>
+      </c>
+      <c r="E121" s="8">
+        <v>400</v>
+      </c>
+      <c r="F121" s="1">
+        <v>13</v>
+      </c>
+      <c r="G121" s="7"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D122" s="7">
+        <v>4</v>
+      </c>
+      <c r="E122" s="8">
+        <v>500.00000000000006</v>
+      </c>
+      <c r="F122" s="1">
+        <v>15</v>
+      </c>
+      <c r="G122" s="7"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D123" s="7">
+        <v>4</v>
+      </c>
+      <c r="E123" s="8">
+        <v>600</v>
+      </c>
+      <c r="F123" s="1">
+        <v>17</v>
+      </c>
+      <c r="G123" s="7"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D124" s="7">
+        <v>4</v>
+      </c>
+      <c r="E124" s="8">
+        <v>700</v>
+      </c>
+      <c r="F124" s="1">
+        <v>20</v>
+      </c>
+      <c r="G124" s="7"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D125" s="7">
+        <v>4</v>
+      </c>
+      <c r="E125" s="8">
+        <v>1100</v>
+      </c>
+      <c r="F125" s="1">
+        <v>28.4</v>
+      </c>
+      <c r="G125" s="7"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D126" s="7">
+        <v>4</v>
+      </c>
+      <c r="E126" s="8">
+        <v>100</v>
+      </c>
+      <c r="F126" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="G126" s="7"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D127" s="7">
+        <v>4</v>
+      </c>
+      <c r="E127" s="8">
+        <v>200</v>
+      </c>
+      <c r="F127" s="1">
+        <v>9</v>
+      </c>
+      <c r="G127" s="7"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D128" s="7">
+        <v>4</v>
+      </c>
+      <c r="E128" s="8">
+        <v>300</v>
+      </c>
+      <c r="F128" s="1">
+        <v>11</v>
+      </c>
+      <c r="G128" s="7"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D129" s="7">
+        <v>4</v>
+      </c>
+      <c r="E129" s="8">
+        <v>400</v>
+      </c>
+      <c r="F129" s="1">
+        <v>13</v>
+      </c>
+      <c r="G129" s="7"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D130" s="7">
+        <v>4</v>
+      </c>
+      <c r="E130" s="8">
+        <v>500.00000000000006</v>
+      </c>
+      <c r="F130" s="1">
+        <v>15</v>
+      </c>
+      <c r="G130" s="7"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D131" s="7">
+        <v>4</v>
+      </c>
+      <c r="E131" s="8">
+        <v>600</v>
+      </c>
+      <c r="F131" s="1">
+        <v>17</v>
+      </c>
+      <c r="G131" s="7"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D132" s="7">
+        <v>4</v>
+      </c>
+      <c r="E132" s="8">
+        <v>700</v>
+      </c>
+      <c r="F132" s="1">
+        <v>20</v>
+      </c>
+      <c r="G132" s="7"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D133" s="7">
+        <v>4</v>
+      </c>
+      <c r="E133" s="8">
+        <v>1100</v>
+      </c>
+      <c r="F133" s="1">
+        <v>28.4</v>
+      </c>
+      <c r="G133" s="7"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D134" s="7">
+        <v>4</v>
+      </c>
+      <c r="E134" s="8">
+        <v>100</v>
+      </c>
+      <c r="F134" s="1">
+        <v>12</v>
+      </c>
+      <c r="G134" s="7"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D135" s="7">
+        <v>4</v>
+      </c>
+      <c r="E135" s="8">
+        <v>200</v>
+      </c>
+      <c r="F135" s="1">
+        <v>13.75</v>
+      </c>
+      <c r="G135" s="7"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D136" s="7">
+        <v>4</v>
+      </c>
+      <c r="E136" s="8">
+        <v>300</v>
+      </c>
+      <c r="F136" s="1">
+        <v>17</v>
+      </c>
+      <c r="G136" s="7"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D137" s="7">
+        <v>4</v>
+      </c>
+      <c r="E137" s="8">
+        <v>400</v>
+      </c>
+      <c r="F137" s="1">
+        <v>19</v>
+      </c>
+      <c r="G137" s="7"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D138" s="7">
+        <v>4</v>
+      </c>
+      <c r="E138" s="8">
+        <v>500.00000000000006</v>
+      </c>
+      <c r="F138" s="1">
+        <v>21</v>
+      </c>
+      <c r="G138" s="7"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D139" s="7">
+        <v>4</v>
+      </c>
+      <c r="E139" s="8">
+        <v>600</v>
+      </c>
+      <c r="F139" s="1">
+        <v>23</v>
+      </c>
+      <c r="G139" s="7"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D140" s="7">
+        <v>4</v>
+      </c>
+      <c r="E140" s="8">
+        <v>700</v>
+      </c>
+      <c r="F140" s="1">
+        <v>25</v>
+      </c>
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D141" s="7">
+        <v>4</v>
+      </c>
+      <c r="E141" s="8">
+        <v>1100</v>
+      </c>
+      <c r="F141" s="1">
+        <v>35</v>
+      </c>
+      <c r="G141" s="7"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D142" s="7">
+        <v>4</v>
+      </c>
+      <c r="E142" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F142" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="G142" s="7"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D143" s="7">
+        <v>4</v>
+      </c>
+      <c r="E143" s="8">
+        <v>100</v>
+      </c>
+      <c r="F143" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G143" s="7"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D144" s="7">
+        <v>4</v>
+      </c>
+      <c r="E144" s="8">
+        <v>200</v>
+      </c>
+      <c r="F144" s="1">
+        <v>15</v>
+      </c>
+      <c r="G144" s="7"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D145" s="7">
+        <v>4</v>
+      </c>
+      <c r="E145" s="8">
+        <v>300</v>
+      </c>
+      <c r="F145" s="1">
         <v>16</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="G145" s="7"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C118" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D118" s="2">
-        <v>4</v>
-      </c>
-      <c r="E118" s="1">
+      <c r="B146" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D146" s="7">
+        <v>4</v>
+      </c>
+      <c r="E146" s="8">
+        <v>400</v>
+      </c>
+      <c r="F146" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="G146" s="7"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D147" s="7">
+        <v>4</v>
+      </c>
+      <c r="E147" s="8">
+        <v>500.00000000000006</v>
+      </c>
+      <c r="F147" s="1">
+        <v>20</v>
+      </c>
+      <c r="G147" s="7"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D148" s="7">
+        <v>4</v>
+      </c>
+      <c r="E148" s="8">
+        <v>600</v>
+      </c>
+      <c r="F148" s="1">
+        <v>22</v>
+      </c>
+      <c r="G148" s="7"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D149" s="7">
+        <v>4</v>
+      </c>
+      <c r="E149" s="8">
+        <v>700</v>
+      </c>
+      <c r="F149" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="G149" s="7"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D150" s="7">
+        <v>4</v>
+      </c>
+      <c r="E150" s="8">
+        <v>1100</v>
+      </c>
+      <c r="F150" s="1">
+        <v>36</v>
+      </c>
+      <c r="G150" s="7"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D151" s="7">
+        <v>4</v>
+      </c>
+      <c r="E151" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F151" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="G151" s="7"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
+      <c r="E152" s="8">
         <v>100</v>
       </c>
-      <c r="F118" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
+      <c r="F152">
+        <v>7.8</v>
+      </c>
+      <c r="G152" s="7"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D153" s="7">
+        <v>0</v>
+      </c>
+      <c r="E153" s="8">
+        <v>200</v>
+      </c>
+      <c r="F153">
+        <v>9</v>
+      </c>
+      <c r="G153" s="7"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D154" s="7">
+        <v>0</v>
+      </c>
+      <c r="E154" s="8">
+        <v>300</v>
+      </c>
+      <c r="F154">
+        <v>11</v>
+      </c>
+      <c r="G154" s="7"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D155" s="7">
+        <v>0</v>
+      </c>
+      <c r="E155" s="8">
+        <v>400</v>
+      </c>
+      <c r="F155">
+        <v>13</v>
+      </c>
+      <c r="G155" s="7"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D156" s="7">
+        <v>0</v>
+      </c>
+      <c r="E156" s="8">
+        <v>500.00000000000006</v>
+      </c>
+      <c r="F156">
+        <v>15</v>
+      </c>
+      <c r="G156" s="7"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D157" s="7">
+        <v>0</v>
+      </c>
+      <c r="E157" s="8">
+        <v>600</v>
+      </c>
+      <c r="F157">
+        <v>17</v>
+      </c>
+      <c r="G157" s="7"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D158" s="7">
+        <v>0</v>
+      </c>
+      <c r="E158" s="8">
+        <v>700</v>
+      </c>
+      <c r="F158">
+        <v>19</v>
+      </c>
+      <c r="G158" s="7"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D159" s="7">
+        <v>0</v>
+      </c>
+      <c r="E159" s="8">
+        <v>1100</v>
+      </c>
+      <c r="F159">
+        <v>28</v>
+      </c>
+      <c r="G159" s="7"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D160" s="7">
+        <v>0</v>
+      </c>
+      <c r="E160" s="8">
+        <v>100</v>
+      </c>
+      <c r="F160">
+        <v>7.8</v>
+      </c>
+      <c r="G160" s="7"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D161" s="7">
+        <v>0</v>
+      </c>
+      <c r="E161" s="8">
+        <v>200</v>
+      </c>
+      <c r="F161">
+        <v>9</v>
+      </c>
+      <c r="G161" s="7"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D162" s="7">
+        <v>0</v>
+      </c>
+      <c r="E162" s="8">
+        <v>300</v>
+      </c>
+      <c r="F162">
+        <v>11</v>
+      </c>
+      <c r="G162" s="7"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D163" s="7">
+        <v>0</v>
+      </c>
+      <c r="E163" s="8">
+        <v>400</v>
+      </c>
+      <c r="F163">
+        <v>13</v>
+      </c>
+      <c r="G163" s="7"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D164" s="7">
+        <v>0</v>
+      </c>
+      <c r="E164" s="8">
+        <v>500.00000000000006</v>
+      </c>
+      <c r="F164">
+        <v>15</v>
+      </c>
+      <c r="G164" s="7"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D165" s="7">
+        <v>0</v>
+      </c>
+      <c r="E165" s="8">
+        <v>600</v>
+      </c>
+      <c r="F165">
+        <v>17</v>
+      </c>
+      <c r="G165" s="7"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D166" s="7">
+        <v>0</v>
+      </c>
+      <c r="E166" s="8">
+        <v>700</v>
+      </c>
+      <c r="F166">
+        <v>19</v>
+      </c>
+      <c r="G166" s="7"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D167" s="7">
+        <v>0</v>
+      </c>
+      <c r="E167" s="8">
+        <v>1100</v>
+      </c>
+      <c r="F167">
+        <v>28</v>
+      </c>
+      <c r="G167" s="7"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D168" s="7">
+        <v>0</v>
+      </c>
+      <c r="E168" s="8">
+        <v>100</v>
+      </c>
+      <c r="F168">
+        <v>13</v>
+      </c>
+      <c r="G168" s="7"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D169" s="7">
+        <v>0</v>
+      </c>
+      <c r="E169" s="8">
+        <v>200</v>
+      </c>
+      <c r="F169">
+        <v>13.5</v>
+      </c>
+      <c r="G169" s="7"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D170" s="7">
+        <v>0</v>
+      </c>
+      <c r="E170" s="8">
+        <v>300</v>
+      </c>
+      <c r="F170">
+        <v>15.5</v>
+      </c>
+      <c r="G170" s="7"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D171" s="7">
+        <v>0</v>
+      </c>
+      <c r="E171" s="8">
+        <v>400</v>
+      </c>
+      <c r="F171">
+        <v>18.5</v>
+      </c>
+      <c r="G171" s="7"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D172" s="7">
+        <v>0</v>
+      </c>
+      <c r="E172" s="8">
+        <v>500.00000000000006</v>
+      </c>
+      <c r="F172">
+        <v>21</v>
+      </c>
+      <c r="G172" s="7"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D173" s="7">
+        <v>0</v>
+      </c>
+      <c r="E173" s="8">
+        <v>600</v>
+      </c>
+      <c r="F173">
+        <v>23.5</v>
+      </c>
+      <c r="G173" s="7"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D174" s="7">
+        <v>0</v>
+      </c>
+      <c r="E174" s="8">
+        <v>700</v>
+      </c>
+      <c r="F174">
+        <v>25</v>
+      </c>
+      <c r="G174" s="7"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D175" s="7">
+        <v>0</v>
+      </c>
+      <c r="E175" s="8">
+        <v>1100</v>
+      </c>
+      <c r="F175">
+        <v>35</v>
+      </c>
+      <c r="G175" s="7"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D176" s="7">
+        <v>0</v>
+      </c>
+      <c r="E176" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F176">
+        <v>38.5</v>
+      </c>
+      <c r="G176" s="7"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D177" s="7">
+        <v>0</v>
+      </c>
+      <c r="E177" s="8">
+        <v>100</v>
+      </c>
+      <c r="F177">
+        <v>12</v>
+      </c>
+      <c r="G177" s="7"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D178" s="7">
+        <v>0</v>
+      </c>
+      <c r="E178" s="8">
+        <v>200</v>
+      </c>
+      <c r="F178">
+        <v>15</v>
+      </c>
+      <c r="G178" s="7"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D179" s="7">
+        <v>0</v>
+      </c>
+      <c r="E179" s="8">
+        <v>300</v>
+      </c>
+      <c r="F179">
+        <v>16.5</v>
+      </c>
+      <c r="G179" s="7"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D180" s="7">
+        <v>0</v>
+      </c>
+      <c r="E180" s="8">
+        <v>400</v>
+      </c>
+      <c r="F180">
+        <v>17.5</v>
+      </c>
+      <c r="G180" s="7"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D181" s="7">
+        <v>0</v>
+      </c>
+      <c r="E181" s="8">
+        <v>500.00000000000006</v>
+      </c>
+      <c r="F181">
+        <v>20</v>
+      </c>
+      <c r="G181" s="7"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D182" s="7">
+        <v>0</v>
+      </c>
+      <c r="E182" s="8">
+        <v>600</v>
+      </c>
+      <c r="F182">
+        <v>22.5</v>
+      </c>
+      <c r="G182" s="7"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D183" s="7">
+        <v>0</v>
+      </c>
+      <c r="E183" s="8">
+        <v>700</v>
+      </c>
+      <c r="F183">
+        <v>25</v>
+      </c>
+      <c r="G183" s="7"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D184" s="7">
+        <v>0</v>
+      </c>
+      <c r="E184" s="8">
+        <v>1100</v>
+      </c>
+      <c r="F184">
+        <v>36</v>
+      </c>
+      <c r="G184" s="7"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D185" s="7">
+        <v>0</v>
+      </c>
+      <c r="E185" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F185">
+        <v>38.5</v>
+      </c>
+      <c r="G185" s="7"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D186" s="2">
+        <v>4</v>
+      </c>
+      <c r="E186" s="8">
+        <v>100</v>
+      </c>
+      <c r="F186">
+        <v>12</v>
+      </c>
+      <c r="G186" s="7"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C187" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D187" s="7">
+        <v>4</v>
+      </c>
+      <c r="E187" s="8">
+        <v>300</v>
+      </c>
+      <c r="F187">
         <v>16</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D119" s="7">
-        <v>4</v>
-      </c>
-      <c r="E119" s="1">
-        <v>200</v>
-      </c>
-      <c r="F119" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D120" s="7">
-        <v>4</v>
-      </c>
-      <c r="E120" s="1">
-        <v>300</v>
-      </c>
-      <c r="F120" s="1">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D121" s="7">
-        <v>4</v>
-      </c>
-      <c r="E121" s="1">
-        <v>400</v>
-      </c>
-      <c r="F121" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D122" s="7">
-        <v>4</v>
-      </c>
-      <c r="E122" s="1">
+      <c r="G187" s="7"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C188" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D188" s="7">
+        <v>4</v>
+      </c>
+      <c r="E188" s="8">
         <v>500.00000000000006</v>
       </c>
-      <c r="F122" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D123" s="7">
-        <v>4</v>
-      </c>
-      <c r="E123" s="1">
-        <v>600</v>
-      </c>
-      <c r="F123" s="1">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D124" s="7">
-        <v>4</v>
-      </c>
-      <c r="E124" s="1">
+      <c r="F188">
+        <v>20</v>
+      </c>
+      <c r="G188" s="7"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C189" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D189" s="7">
+        <v>4</v>
+      </c>
+      <c r="E189" s="8">
         <v>700</v>
       </c>
-      <c r="F124" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D125" s="7">
-        <v>4</v>
-      </c>
-      <c r="E125" s="1">
+      <c r="F189">
+        <v>25</v>
+      </c>
+      <c r="G189" s="7"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D190" s="7">
+        <v>4</v>
+      </c>
+      <c r="E190" s="8">
         <v>1100</v>
       </c>
-      <c r="F125" s="1">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D126" s="7">
-        <v>4</v>
-      </c>
-      <c r="E126" s="1">
-        <v>100</v>
-      </c>
-      <c r="F126" s="1">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D127" s="7">
-        <v>4</v>
-      </c>
-      <c r="E127" s="1">
-        <v>200</v>
-      </c>
-      <c r="F127" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D128" s="7">
-        <v>4</v>
-      </c>
-      <c r="E128" s="1">
-        <v>300</v>
-      </c>
-      <c r="F128" s="1">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C129" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D129" s="7">
-        <v>4</v>
-      </c>
-      <c r="E129" s="1">
-        <v>400</v>
-      </c>
-      <c r="F129" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C130" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D130" s="7">
-        <v>4</v>
-      </c>
-      <c r="E130" s="1">
-        <v>500.00000000000006</v>
-      </c>
-      <c r="F130" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C131" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D131" s="7">
-        <v>4</v>
-      </c>
-      <c r="E131" s="1">
-        <v>600</v>
-      </c>
-      <c r="F131" s="1">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C132" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D132" s="7">
-        <v>4</v>
-      </c>
-      <c r="E132" s="1">
-        <v>700</v>
-      </c>
-      <c r="F132" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D133" s="7">
-        <v>4</v>
-      </c>
-      <c r="E133" s="1">
-        <v>1100</v>
-      </c>
-      <c r="F133" s="1">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C134" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D134" s="7">
-        <v>4</v>
-      </c>
-      <c r="E134" s="1">
-        <v>100</v>
-      </c>
-      <c r="F134" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C135" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D135" s="7">
-        <v>4</v>
-      </c>
-      <c r="E135" s="1">
-        <v>200</v>
-      </c>
-      <c r="F135" s="1">
-        <v>6.875</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C136" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D136" s="7">
-        <v>4</v>
-      </c>
-      <c r="E136" s="1">
-        <v>300</v>
-      </c>
-      <c r="F136" s="1">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C137" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D137" s="7">
-        <v>4</v>
-      </c>
-      <c r="E137" s="1">
-        <v>400</v>
-      </c>
-      <c r="F137" s="1">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C138" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D138" s="7">
-        <v>4</v>
-      </c>
-      <c r="E138" s="1">
-        <v>500.00000000000006</v>
-      </c>
-      <c r="F138" s="1">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C139" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D139" s="7">
-        <v>4</v>
-      </c>
-      <c r="E139" s="1">
-        <v>600</v>
-      </c>
-      <c r="F139" s="1">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C140" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D140" s="7">
-        <v>4</v>
-      </c>
-      <c r="E140" s="1">
-        <v>700</v>
-      </c>
-      <c r="F140" s="1">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C141" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D141" s="7">
-        <v>4</v>
-      </c>
-      <c r="E141" s="1">
-        <v>1100</v>
-      </c>
-      <c r="F141" s="1">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D142" s="7">
-        <v>4</v>
-      </c>
-      <c r="E142" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F142" s="1">
-        <v>19.25</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C143" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D143" s="7">
-        <v>4</v>
-      </c>
-      <c r="E143" s="1">
-        <v>100</v>
-      </c>
-      <c r="F143" s="1">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C144" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D144" s="7">
-        <v>4</v>
-      </c>
-      <c r="E144" s="1">
-        <v>200</v>
-      </c>
-      <c r="F144" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C145" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D145" s="7">
-        <v>4</v>
-      </c>
-      <c r="E145" s="1">
-        <v>300</v>
-      </c>
-      <c r="F145" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C146" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D146" s="7">
-        <v>4</v>
-      </c>
-      <c r="E146" s="1">
-        <v>400</v>
-      </c>
-      <c r="F146" s="1">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C147" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D147" s="7">
-        <v>4</v>
-      </c>
-      <c r="E147" s="1">
-        <v>500.00000000000006</v>
-      </c>
-      <c r="F147" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C148" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D148" s="7">
-        <v>4</v>
-      </c>
-      <c r="E148" s="1">
-        <v>600</v>
-      </c>
-      <c r="F148" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C149" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D149" s="7">
-        <v>4</v>
-      </c>
-      <c r="E149" s="1">
-        <v>700</v>
-      </c>
-      <c r="F149" s="1">
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C150" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D150" s="7">
-        <v>4</v>
-      </c>
-      <c r="E150" s="1">
-        <v>1100</v>
-      </c>
-      <c r="F150" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C151" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D151" s="7">
-        <v>4</v>
-      </c>
-      <c r="E151" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F151" s="1">
-        <v>19.25</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>14</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C152" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D152" s="2">
-        <v>0</v>
-      </c>
-      <c r="E152">
-        <v>100</v>
-      </c>
-      <c r="F152">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C153" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D153" s="7">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>200</v>
-      </c>
-      <c r="F153">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C154" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D154" s="7">
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <v>300</v>
-      </c>
-      <c r="F154">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C155" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D155" s="7">
-        <v>0</v>
-      </c>
-      <c r="E155">
-        <v>400</v>
-      </c>
-      <c r="F155">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C156" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D156" s="7">
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <v>500.00000000000006</v>
-      </c>
-      <c r="F156">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C157" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D157" s="7">
-        <v>0</v>
-      </c>
-      <c r="E157">
-        <v>600</v>
-      </c>
-      <c r="F157">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C158" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D158" s="7">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>700</v>
-      </c>
-      <c r="F158">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C159" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D159" s="7">
-        <v>0</v>
-      </c>
-      <c r="E159">
-        <v>1100</v>
-      </c>
-      <c r="F159">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C160" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D160" s="7">
-        <v>0</v>
-      </c>
-      <c r="E160">
-        <v>100</v>
-      </c>
-      <c r="F160">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C161" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D161" s="7">
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <v>200</v>
-      </c>
-      <c r="F161">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C162" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D162" s="7">
-        <v>0</v>
-      </c>
-      <c r="E162">
-        <v>300</v>
-      </c>
-      <c r="F162">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C163" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D163" s="7">
-        <v>0</v>
-      </c>
-      <c r="E163">
-        <v>400</v>
-      </c>
-      <c r="F163">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C164" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D164" s="7">
-        <v>0</v>
-      </c>
-      <c r="E164">
-        <v>500.00000000000006</v>
-      </c>
-      <c r="F164">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C165" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D165" s="7">
-        <v>0</v>
-      </c>
-      <c r="E165">
-        <v>600</v>
-      </c>
-      <c r="F165">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C166" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D166" s="7">
-        <v>0</v>
-      </c>
-      <c r="E166">
-        <v>700</v>
-      </c>
-      <c r="F166">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C167" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D167" s="7">
-        <v>0</v>
-      </c>
-      <c r="E167">
-        <v>1100</v>
-      </c>
-      <c r="F167">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C168" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D168" s="7">
-        <v>0</v>
-      </c>
-      <c r="E168">
-        <v>100</v>
-      </c>
-      <c r="F168">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C169" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D169" s="7">
-        <v>0</v>
-      </c>
-      <c r="E169">
-        <v>200</v>
-      </c>
-      <c r="F169">
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C170" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D170" s="7">
-        <v>0</v>
-      </c>
-      <c r="E170">
-        <v>300</v>
-      </c>
-      <c r="F170">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C171" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D171" s="7">
-        <v>0</v>
-      </c>
-      <c r="E171">
-        <v>400</v>
-      </c>
-      <c r="F171">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C172" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D172" s="7">
-        <v>0</v>
-      </c>
-      <c r="E172">
-        <v>500.00000000000006</v>
-      </c>
-      <c r="F172">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C173" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D173" s="7">
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <v>600</v>
-      </c>
-      <c r="F173">
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C174" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D174" s="7">
-        <v>0</v>
-      </c>
-      <c r="E174">
-        <v>700</v>
-      </c>
-      <c r="F174">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C175" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D175" s="7">
-        <v>0</v>
-      </c>
-      <c r="E175">
-        <v>1100</v>
-      </c>
-      <c r="F175">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C176" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D176" s="7">
-        <v>0</v>
-      </c>
-      <c r="E176">
-        <v>1200</v>
-      </c>
-      <c r="F176">
-        <v>19.25</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C177" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D177" s="7">
-        <v>0</v>
-      </c>
-      <c r="E177">
-        <v>100</v>
-      </c>
-      <c r="F177">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C178" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D178" s="7">
-        <v>0</v>
-      </c>
-      <c r="E178">
-        <v>200</v>
-      </c>
-      <c r="F178">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C179" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D179" s="7">
-        <v>0</v>
-      </c>
-      <c r="E179">
-        <v>300</v>
-      </c>
-      <c r="F179">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C180" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D180" s="7">
-        <v>0</v>
-      </c>
-      <c r="E180">
-        <v>400</v>
-      </c>
-      <c r="F180">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C181" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D181" s="7">
-        <v>0</v>
-      </c>
-      <c r="E181">
-        <v>500.00000000000006</v>
-      </c>
-      <c r="F181">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C182" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D182" s="7">
-        <v>0</v>
-      </c>
-      <c r="E182">
-        <v>600</v>
-      </c>
-      <c r="F182">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C183" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D183" s="7">
-        <v>0</v>
-      </c>
-      <c r="E183">
-        <v>700</v>
-      </c>
-      <c r="F183">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C184" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D184" s="7">
-        <v>0</v>
-      </c>
-      <c r="E184">
-        <v>1100</v>
-      </c>
-      <c r="F184">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C185" s="7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D185" s="7">
-        <v>0</v>
-      </c>
-      <c r="E185">
-        <v>1200</v>
-      </c>
-      <c r="F185">
-        <v>19.25</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>18</v>
-      </c>
-      <c r="B186" t="s">
-        <v>6</v>
-      </c>
-      <c r="C186" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="D186" s="2">
-        <v>4</v>
-      </c>
-      <c r="E186">
-        <v>100</v>
-      </c>
-      <c r="F186">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C187" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="D187" s="7">
-        <v>4</v>
-      </c>
-      <c r="E187">
-        <v>300</v>
-      </c>
-      <c r="F187">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C188" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="D188" s="7">
-        <v>4</v>
-      </c>
-      <c r="E188">
-        <v>500.00000000000006</v>
-      </c>
-      <c r="F188">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C189" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="D189" s="7">
-        <v>4</v>
-      </c>
-      <c r="E189">
-        <v>700</v>
-      </c>
-      <c r="F189">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C190" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="D190" s="7">
-        <v>4</v>
-      </c>
-      <c r="E190">
-        <v>1100</v>
-      </c>
       <c r="F190">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G190" s="7"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C191" s="7">
         <v>0.06</v>
@@ -4321,15 +4394,16 @@
         <v>1200</v>
       </c>
       <c r="F191">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G191" s="7"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C192" s="7">
         <v>0.06</v>
@@ -4341,15 +4415,16 @@
         <v>100</v>
       </c>
       <c r="F192">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G192" s="7"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C193" s="7">
         <v>0.06</v>
@@ -4361,15 +4436,16 @@
         <v>300</v>
       </c>
       <c r="F193">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G193" s="7"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C194" s="7">
         <v>0.06</v>
@@ -4381,15 +4457,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F194">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G194" s="7"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C195" s="7">
         <v>0.06</v>
@@ -4401,15 +4478,16 @@
         <v>700</v>
       </c>
       <c r="F195">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G195" s="7"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C196" s="7">
         <v>0.06</v>
@@ -4421,15 +4499,16 @@
         <v>1100</v>
       </c>
       <c r="F196">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G196" s="7"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C197" s="7">
         <v>0.06</v>
@@ -4441,15 +4520,16 @@
         <v>1200</v>
       </c>
       <c r="F197">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G197" s="7"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C198" s="7">
         <v>0.06</v>
@@ -4461,15 +4541,16 @@
         <v>100</v>
       </c>
       <c r="F198">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G198" s="7"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C199" s="7">
         <v>0.06</v>
@@ -4481,15 +4562,16 @@
         <v>200</v>
       </c>
       <c r="F199">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15.5</v>
+      </c>
+      <c r="G199" s="7"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C200" s="7">
         <v>0.06</v>
@@ -4501,15 +4583,16 @@
         <v>300</v>
       </c>
       <c r="F200">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17.5</v>
+      </c>
+      <c r="G200" s="7"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C201" s="7">
         <v>0.06</v>
@@ -4521,15 +4604,16 @@
         <v>400</v>
       </c>
       <c r="F201">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G201" s="7"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C202" s="7">
         <v>0.06</v>
@@ -4541,15 +4625,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F202">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G202" s="7"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C203" s="7">
         <v>0.06</v>
@@ -4561,15 +4646,16 @@
         <v>600</v>
       </c>
       <c r="F203">
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23.5</v>
+      </c>
+      <c r="G203" s="7"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C204" s="7">
         <v>0.06</v>
@@ -4581,15 +4667,16 @@
         <v>700</v>
       </c>
       <c r="F204">
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25.5</v>
+      </c>
+      <c r="G204" s="7"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C205" s="7">
         <v>0.06</v>
@@ -4601,15 +4688,16 @@
         <v>1100</v>
       </c>
       <c r="F205">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G205" s="7"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C206" s="7">
         <v>0.06</v>
@@ -4621,15 +4709,16 @@
         <v>1200</v>
       </c>
       <c r="F206">
-        <v>21.25</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42.5</v>
+      </c>
+      <c r="G206" s="7"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C207" s="7">
         <v>0.06</v>
@@ -4641,15 +4730,16 @@
         <v>100</v>
       </c>
       <c r="F207">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G207" s="7"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C208" s="7">
         <v>0.06</v>
@@ -4661,15 +4751,16 @@
         <v>200</v>
       </c>
       <c r="F208">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G208" s="7"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C209" s="7">
         <v>0.06</v>
@@ -4681,15 +4772,16 @@
         <v>300</v>
       </c>
       <c r="F209">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G209" s="7"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C210" s="7">
         <v>0.06</v>
@@ -4701,15 +4793,16 @@
         <v>400</v>
       </c>
       <c r="F210">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19.5</v>
+      </c>
+      <c r="G210" s="7"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C211" s="7">
         <v>0.06</v>
@@ -4721,15 +4814,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F211">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G211" s="7"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C212" s="7">
         <v>0.06</v>
@@ -4741,15 +4835,16 @@
         <v>600</v>
       </c>
       <c r="F212">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G212" s="7"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C213" s="7">
         <v>0.06</v>
@@ -4761,15 +4856,16 @@
         <v>700</v>
       </c>
       <c r="F213">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G213" s="7"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C214" s="7">
         <v>0.06</v>
@@ -4781,15 +4877,16 @@
         <v>1100</v>
       </c>
       <c r="F214">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G214" s="7"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C215" s="7">
         <v>0.06</v>
@@ -4801,15 +4898,16 @@
         <v>1200</v>
       </c>
       <c r="F215">
-        <v>21.25</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42.5</v>
+      </c>
+      <c r="G215" s="7"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C216" s="7">
         <v>0.06</v>
@@ -4821,15 +4919,16 @@
         <v>100</v>
       </c>
       <c r="F216">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G216" s="7"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C217" s="7">
         <v>0.06</v>
@@ -4841,15 +4940,16 @@
         <v>300</v>
       </c>
       <c r="F217">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G217" s="7"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C218" s="7">
         <v>0.06</v>
@@ -4861,15 +4961,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F218">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G218" s="7"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C219" s="7">
         <v>0.06</v>
@@ -4881,15 +4982,16 @@
         <v>700</v>
       </c>
       <c r="F219">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G219" s="7"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C220" s="7">
         <v>0.06</v>
@@ -4901,15 +5003,16 @@
         <v>1100</v>
       </c>
       <c r="F220">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G220" s="7"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C221" s="7">
         <v>0.06</v>
@@ -4921,15 +5024,16 @@
         <v>1200</v>
       </c>
       <c r="F221">
+        <v>36</v>
+      </c>
+      <c r="G221" s="7"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="B222" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C222" s="7">
         <v>0.06</v>
@@ -4941,15 +5045,16 @@
         <v>100</v>
       </c>
       <c r="F222">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G222" s="7"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C223" s="7">
         <v>0.06</v>
@@ -4961,15 +5066,16 @@
         <v>300</v>
       </c>
       <c r="F223">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G223" s="7"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C224" s="7">
         <v>0.06</v>
@@ -4981,15 +5087,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F224">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G224" s="7"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C225" s="7">
         <v>0.06</v>
@@ -5001,15 +5108,16 @@
         <v>700</v>
       </c>
       <c r="F225">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G225" s="7"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C226" s="7">
         <v>0.06</v>
@@ -5021,15 +5129,16 @@
         <v>1100</v>
       </c>
       <c r="F226">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G226" s="7"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C227" s="7">
         <v>0.06</v>
@@ -5041,15 +5150,16 @@
         <v>1200</v>
       </c>
       <c r="F227">
+        <v>36</v>
+      </c>
+      <c r="G227" s="7"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="B228" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C228" s="7">
         <v>0.06</v>
@@ -5061,15 +5171,16 @@
         <v>100</v>
       </c>
       <c r="F228">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G228" s="7"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C229" s="7">
         <v>0.06</v>
@@ -5081,15 +5192,16 @@
         <v>200</v>
       </c>
       <c r="F229">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15.5</v>
+      </c>
+      <c r="G229" s="7"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C230" s="7">
         <v>0.06</v>
@@ -5101,15 +5213,16 @@
         <v>300</v>
       </c>
       <c r="F230">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G230" s="7"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C231" s="7">
         <v>0.06</v>
@@ -5121,15 +5234,16 @@
         <v>400</v>
       </c>
       <c r="F231">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19.5</v>
+      </c>
+      <c r="G231" s="7"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C232" s="7">
         <v>0.06</v>
@@ -5141,15 +5255,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F232">
-        <v>10.75</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.5</v>
+      </c>
+      <c r="G232" s="7"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C233" s="7">
         <v>0.06</v>
@@ -5161,15 +5276,16 @@
         <v>600</v>
       </c>
       <c r="F233">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G233" s="7"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C234" s="7">
         <v>0.06</v>
@@ -5181,15 +5297,16 @@
         <v>700</v>
       </c>
       <c r="F234">
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25.5</v>
+      </c>
+      <c r="G234" s="7"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C235" s="7">
         <v>0.06</v>
@@ -5201,15 +5318,16 @@
         <v>1100</v>
       </c>
       <c r="F235">
+        <v>36</v>
+      </c>
+      <c r="G235" s="7"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="B236" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C236" s="7">
         <v>0.06</v>
@@ -5221,15 +5339,16 @@
         <v>1200</v>
       </c>
       <c r="F236">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G236" s="7"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C237" s="7">
         <v>0.06</v>
@@ -5241,15 +5360,16 @@
         <v>100</v>
       </c>
       <c r="F237">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G237" s="7"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C238" s="7">
         <v>0.06</v>
@@ -5261,15 +5381,16 @@
         <v>200</v>
       </c>
       <c r="F238">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G238" s="7"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C239" s="7">
         <v>0.06</v>
@@ -5281,15 +5402,16 @@
         <v>300</v>
       </c>
       <c r="F239">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G239" s="7"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C240" s="7">
         <v>0.06</v>
@@ -5301,15 +5423,16 @@
         <v>400</v>
       </c>
       <c r="F240">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17.5</v>
+      </c>
+      <c r="G240" s="7"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C241" s="7">
         <v>0.06</v>
@@ -5321,15 +5444,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F241">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19.5</v>
+      </c>
+      <c r="G241" s="7"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C242" s="7">
         <v>0.06</v>
@@ -5341,15 +5465,16 @@
         <v>600</v>
       </c>
       <c r="F242">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G242" s="7"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C243" s="7">
         <v>0.06</v>
@@ -5361,15 +5486,16 @@
         <v>700</v>
       </c>
       <c r="F243">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G243" s="7"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C244" s="7">
         <v>0.06</v>
@@ -5381,15 +5507,16 @@
         <v>1100</v>
       </c>
       <c r="F244">
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+      <c r="G244" s="7"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C245" s="7">
         <v>0.06</v>
@@ -5401,15 +5528,16 @@
         <v>1200</v>
       </c>
       <c r="F245">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G245" s="7"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C246" s="7">
         <v>0.03</v>
@@ -5421,15 +5549,16 @@
         <v>100</v>
       </c>
       <c r="F246">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.8</v>
+      </c>
+      <c r="G246" s="7"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C247" s="7">
         <v>0.03</v>
@@ -5441,15 +5570,16 @@
         <v>200</v>
       </c>
       <c r="F247">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G247" s="7"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C248" s="7">
         <v>0.03</v>
@@ -5461,15 +5591,16 @@
         <v>300</v>
       </c>
       <c r="F248">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G248" s="7"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C249" s="7">
         <v>0.03</v>
@@ -5481,15 +5612,16 @@
         <v>400</v>
       </c>
       <c r="F249">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G249" s="7"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C250" s="7">
         <v>0.03</v>
@@ -5501,15 +5633,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F250">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G250" s="7"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C251" s="7">
         <v>0.03</v>
@@ -5521,15 +5654,16 @@
         <v>600</v>
       </c>
       <c r="F251">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G251" s="7"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C252" s="7">
         <v>0.03</v>
@@ -5541,15 +5675,16 @@
         <v>700</v>
       </c>
       <c r="F252">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G252" s="7"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C253" s="7">
         <v>0.03</v>
@@ -5561,15 +5696,16 @@
         <v>100</v>
       </c>
       <c r="F253">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G253" s="7"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C254" s="7">
         <v>0.03</v>
@@ -5581,15 +5717,16 @@
         <v>200</v>
       </c>
       <c r="F254">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G254" s="7"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C255" s="7">
         <v>0.03</v>
@@ -5601,15 +5738,16 @@
         <v>300</v>
       </c>
       <c r="F255">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G255" s="7"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C256" s="7">
         <v>0.03</v>
@@ -5621,15 +5759,16 @@
         <v>400</v>
       </c>
       <c r="F256">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G256" s="7"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C257" s="7">
         <v>0.03</v>
@@ -5641,15 +5780,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F257">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G257" s="7"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C258" s="7">
         <v>0.03</v>
@@ -5661,15 +5801,16 @@
         <v>600</v>
       </c>
       <c r="F258">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G258" s="7"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C259" s="7">
         <v>0.03</v>
@@ -5681,15 +5822,16 @@
         <v>700</v>
       </c>
       <c r="F259">
+        <v>40</v>
+      </c>
+      <c r="G259" s="7"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>21</v>
-      </c>
       <c r="B260" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C260" s="7">
         <v>0.03</v>
@@ -5701,15 +5843,16 @@
         <v>100</v>
       </c>
       <c r="F260">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G260" s="7"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C261" s="7">
         <v>0.03</v>
@@ -5721,15 +5864,16 @@
         <v>200</v>
       </c>
       <c r="F261">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G261" s="7"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C262" s="7">
         <v>0.03</v>
@@ -5741,15 +5885,16 @@
         <v>300</v>
       </c>
       <c r="F262">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G262" s="7"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C263" s="7">
         <v>0.03</v>
@@ -5761,15 +5906,16 @@
         <v>400</v>
       </c>
       <c r="F263">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G263" s="7"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C264" s="7">
         <v>0.03</v>
@@ -5781,15 +5927,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F264">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G264" s="7"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C265" s="7">
         <v>0.03</v>
@@ -5801,15 +5948,16 @@
         <v>600</v>
       </c>
       <c r="F265">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G265" s="7"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C266" s="7">
         <v>0.03</v>
@@ -5821,15 +5969,16 @@
         <v>700</v>
       </c>
       <c r="F266">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G266" s="7"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C267" s="7">
         <v>0.03</v>
@@ -5841,15 +5990,16 @@
         <v>1100</v>
       </c>
       <c r="F267">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G267" s="7"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C268" s="7">
         <v>0.03</v>
@@ -5861,15 +6011,16 @@
         <v>100</v>
       </c>
       <c r="F268">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G268" s="7"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C269" s="7">
         <v>0.03</v>
@@ -5881,15 +6032,16 @@
         <v>200</v>
       </c>
       <c r="F269">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G269" s="7"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C270" s="7">
         <v>0.03</v>
@@ -5901,15 +6053,16 @@
         <v>300</v>
       </c>
       <c r="F270">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G270" s="7"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C271" s="7">
         <v>0.03</v>
@@ -5921,15 +6074,16 @@
         <v>400</v>
       </c>
       <c r="F271">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G271" s="7"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C272" s="7">
         <v>0.03</v>
@@ -5941,15 +6095,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F272">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G272" s="7"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C273" s="7">
         <v>0.03</v>
@@ -5961,15 +6116,16 @@
         <v>600</v>
       </c>
       <c r="F273">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G273" s="7"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C274" s="7">
         <v>0.03</v>
@@ -5981,15 +6137,16 @@
         <v>700</v>
       </c>
       <c r="F274">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G274" s="7"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C275" s="7">
         <v>0.03</v>
@@ -6001,15 +6158,16 @@
         <v>1100</v>
       </c>
       <c r="F275">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G275" s="7"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B276" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C276" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6021,15 +6179,16 @@
         <v>100</v>
       </c>
       <c r="F276">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G276" s="7"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C277" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6041,15 +6200,16 @@
         <v>300</v>
       </c>
       <c r="F277">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G277" s="7"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C278" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6061,15 +6221,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F278">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G278" s="7"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C279" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6081,15 +6242,16 @@
         <v>700</v>
       </c>
       <c r="F279">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G279" s="7"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C280" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6101,15 +6263,16 @@
         <v>1100</v>
       </c>
       <c r="F280">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G280" s="7"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C281" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6121,15 +6284,16 @@
         <v>1200</v>
       </c>
       <c r="F281">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G281" s="7"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C282" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6141,15 +6305,16 @@
         <v>100</v>
       </c>
       <c r="F282">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G282" s="7"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C283" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6161,15 +6326,16 @@
         <v>300</v>
       </c>
       <c r="F283">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G283" s="7"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C284" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6181,15 +6347,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F284">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G284" s="7"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C285" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6201,15 +6368,16 @@
         <v>700</v>
       </c>
       <c r="F285">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G285" s="7"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C286" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6221,15 +6389,16 @@
         <v>1100</v>
       </c>
       <c r="F286">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G286" s="7"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C287" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6241,15 +6410,16 @@
         <v>1200</v>
       </c>
       <c r="F287">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G287" s="7"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C288" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6261,15 +6431,16 @@
         <v>100</v>
       </c>
       <c r="F288">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G288" s="7"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C289" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6281,15 +6452,16 @@
         <v>200</v>
       </c>
       <c r="F289">
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13.5</v>
+      </c>
+      <c r="G289" s="7"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C290" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6301,15 +6473,16 @@
         <v>300</v>
       </c>
       <c r="F290">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G290" s="7"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C291" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6321,15 +6494,16 @@
         <v>400</v>
       </c>
       <c r="F291">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G291" s="7"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C292" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6341,15 +6515,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F292">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G292" s="7"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C293" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6361,15 +6536,16 @@
         <v>600</v>
       </c>
       <c r="F293">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G293" s="7"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C294" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6381,15 +6557,16 @@
         <v>700</v>
       </c>
       <c r="F294">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G294" s="7"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C295" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6401,15 +6578,16 @@
         <v>1100</v>
       </c>
       <c r="F295">
-        <v>18.25</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.5</v>
+      </c>
+      <c r="G295" s="7"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C296" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6421,15 +6599,16 @@
         <v>1200</v>
       </c>
       <c r="F296">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G296" s="7"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C297" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6441,15 +6620,16 @@
         <v>100</v>
       </c>
       <c r="F297">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G297" s="7"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C298" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6461,15 +6641,16 @@
         <v>200</v>
       </c>
       <c r="F298">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G298" s="7"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C299" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6481,15 +6662,16 @@
         <v>300</v>
       </c>
       <c r="F299">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G299" s="7"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C300" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6501,15 +6683,16 @@
         <v>400</v>
       </c>
       <c r="F300">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17.5</v>
+      </c>
+      <c r="G300" s="7"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C301" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6521,15 +6704,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F301">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19.5</v>
+      </c>
+      <c r="G301" s="7"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C302" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6541,15 +6725,16 @@
         <v>600</v>
       </c>
       <c r="F302">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G302" s="7"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C303" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6561,15 +6746,16 @@
         <v>700</v>
       </c>
       <c r="F303">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G303" s="7"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C304" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6581,15 +6767,16 @@
         <v>1100</v>
       </c>
       <c r="F304">
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+      <c r="G304" s="7"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C305" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6601,15 +6788,16 @@
         <v>1200</v>
       </c>
       <c r="F305">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G305" s="7"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C306" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6621,15 +6809,16 @@
         <v>100</v>
       </c>
       <c r="F306">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12.5</v>
+      </c>
+      <c r="G306" s="7"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C307" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6641,15 +6830,16 @@
         <v>200</v>
       </c>
       <c r="F307">
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13.5</v>
+      </c>
+      <c r="G307" s="7"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C308" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6661,15 +6851,16 @@
         <v>300</v>
       </c>
       <c r="F308">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G308" s="7"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C309" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6681,15 +6872,16 @@
         <v>400</v>
       </c>
       <c r="F309">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G309" s="7"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C310" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6701,15 +6893,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F310">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G310" s="7"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C311" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6721,15 +6914,16 @@
         <v>600</v>
       </c>
       <c r="F311">
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23.5</v>
+      </c>
+      <c r="G311" s="7"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C312" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6741,15 +6935,16 @@
         <v>700</v>
       </c>
       <c r="F312">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G312" s="7"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C313" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6761,15 +6956,16 @@
         <v>1100</v>
       </c>
       <c r="F313">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G313" s="7"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C314" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6781,15 +6977,16 @@
         <v>1200</v>
       </c>
       <c r="F314">
-        <v>19.25</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38.5</v>
+      </c>
+      <c r="G314" s="7"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C315" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6801,15 +6998,16 @@
         <v>100</v>
       </c>
       <c r="F315">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G315" s="7"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C316" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6821,15 +7019,16 @@
         <v>200</v>
       </c>
       <c r="F316">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14.5</v>
+      </c>
+      <c r="G316" s="7"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C317" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6841,15 +7040,16 @@
         <v>300</v>
       </c>
       <c r="F317">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G317" s="7"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C318" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6861,15 +7061,16 @@
         <v>400</v>
       </c>
       <c r="F318">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17.5</v>
+      </c>
+      <c r="G318" s="7"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C319" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6881,15 +7082,16 @@
         <v>500.00000000000006</v>
       </c>
       <c r="F319">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G319" s="7"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C320" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6901,15 +7103,16 @@
         <v>600</v>
       </c>
       <c r="F320">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G320" s="7"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C321" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6921,15 +7124,16 @@
         <v>700</v>
       </c>
       <c r="F321">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G321" s="7"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C322" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6941,15 +7145,16 @@
         <v>1100</v>
       </c>
       <c r="F322">
-        <v>18.25</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.5</v>
+      </c>
+      <c r="G322" s="7"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C323" s="7">
         <v>4.4999999999999998E-2</v>
@@ -6961,11 +7166,13 @@
         <v>1200</v>
       </c>
       <c r="F323">
-        <v>19.25</v>
-      </c>
+        <v>38.5</v>
+      </c>
+      <c r="G323" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>